--- a/evaluation/clusters&keywords/vmware&virtualbox.xlsx
+++ b/evaluation/clusters&keywords/vmware&virtualbox.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NicoleHuang/OneDrive - Australian National University/COMP8800/diffSimilarTech/clusters&amp;keywords/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NicoleHuang/OneDrive - Australian National University/COMP8800/diffSimilarTech/evaluation/clusters&amp;keywords/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{339FB827-3B76-7241-87BD-372B5AE927F0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CFB232A3-DDD8-1F4F-A420-0D22228276C2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="8760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,18 +158,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,11 +474,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="156.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -489,86 +492,86 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
